--- a/data/numbers.xlsx
+++ b/data/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\whatsapp\auto_whatsapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DD03E9-373B-4A8C-ADA5-CA5F453FF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2561BD-816A-4CAA-AFB5-E4698DC2D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,7 +358,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
